--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1674070.949478971</v>
+        <v>1694044.971596284</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7311922.400320278</v>
+        <v>7311922.400320277</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4647174.507226542</v>
+        <v>4647174.507226539</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,17 +788,17 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.73205987707308</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="4">
@@ -831,46 +831,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="K4" t="n">
+      <c r="T4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="R4" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>15.26809192273228</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.62029119463083</v>
+        <v>10.94391759456928</v>
       </c>
       <c r="G8" t="n">
-        <v>25.62029119463083</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="F9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>226.413047343676</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>222.3900130655337</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>207.9692892133734</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I12" t="n">
-        <v>25.74040338702139</v>
+        <v>25.74040338702101</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.18264795680088</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.003810860145</v>
+        <v>79.8705110152264</v>
       </c>
       <c r="T13" t="n">
         <v>221.3227360255122</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>218.6283130184347</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84135929137182</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4946483329068</v>
+        <v>135.4946483329072</v>
       </c>
       <c r="H15" t="n">
         <v>94.37926369119775</v>
       </c>
       <c r="I15" t="n">
-        <v>25.74040338702139</v>
+        <v>25.74040338702101</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>166.880795675055</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T16" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2344822917747</v>
+        <v>144.2178319092437</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0692109139906</v>
+        <v>247.3371499949885</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>121.2022840392725</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.003810860145</v>
+        <v>173.6121754614057</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.3879292069528</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.5259598898183</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>27.20628226707352</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H20" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>146.9112728775607</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>180.5367293975974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>25.71374481644287</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S25" t="n">
-        <v>174.0057977119975</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2344822917747</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.003810860145</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.1066052881867</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.3682644160153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>173.4427034018917</v>
       </c>
       <c r="U31" t="n">
-        <v>259.0776375358124</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.26532265684279</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.3886553553729</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I35" t="n">
-        <v>47.69641422812941</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>85.32639359291468</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>135.4946483329072</v>
       </c>
       <c r="H36" t="n">
-        <v>94.37926369119775</v>
+        <v>94.37926369119737</v>
       </c>
       <c r="I36" t="n">
         <v>25.74040338702139</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.464647708386537</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2344822917747</v>
+        <v>276.0213804583097</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>304.0859074973321</v>
+        <v>161.4515876363211</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.73654344259009</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T38" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>67.69605252548141</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>166.4409498386617</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I40" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.9071760350872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>267.6160278983174</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3793,10 +3793,10 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T41" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>120.9022754910079</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,7 +3836,7 @@
         <v>135.4946483329072</v>
       </c>
       <c r="H42" t="n">
-        <v>94.37926369119737</v>
+        <v>94.37926369119775</v>
       </c>
       <c r="I42" t="n">
         <v>25.74040338702139</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T43" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.2266346589708</v>
+        <v>263.5249851884435</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8472125920607</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>14.71269876049624</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T44" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>68.8094362377774</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>3.032921318020803</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.4460009586983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.520326799142933</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F2" t="n">
         <v>28.75151886964269</v>
@@ -4339,13 +4339,13 @@
         <v>15.7618196405891</v>
       </c>
       <c r="M2" t="n">
+        <v>15.7618196405891</v>
+      </c>
+      <c r="N2" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
@@ -4354,28 +4354,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>44.20882949099123</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4412,16 +4412,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
         <v>30.9115297805728</v>
@@ -4436,13 +4436,13 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
         <v>30.29632881784312</v>
@@ -4454,7 +4454,7 @@
         <v>30.29632881784312</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="C4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="D4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="E4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="G4" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
@@ -4506,34 +4506,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.75363943919166</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R4" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S4" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="5">
@@ -4570,19 +4570,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="N5" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="O5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4591,19 +4591,19 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
         <v>35.69701961884617</v>
@@ -4625,22 +4625,22 @@
         <v>45.75363943919166</v>
       </c>
       <c r="C6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E6" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G6" t="n">
         <v>17.43566227534506</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4652,16 +4652,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="M6" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M6" t="n">
-        <v>46.6733494211619</v>
-      </c>
       <c r="N6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P6" t="n">
         <v>61.2109500605402</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>47.59615086525642</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.59615086525642</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.59615086525642</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47.59615086525642</v>
+      </c>
+      <c r="F7" t="n">
         <v>32.13884024390788</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.68152962255934</v>
       </c>
       <c r="G7" t="n">
         <v>16.68152962255934</v>
@@ -4731,13 +4731,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4746,31 +4746,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="X7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.00470940373054</v>
+        <v>47.59615086525642</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="C8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="D8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="E8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="F8" t="n">
-        <v>40.631385380739</v>
+        <v>29.57692316400236</v>
       </c>
       <c r="G8" t="n">
-        <v>14.75230336596039</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H8" t="n">
         <v>14.11961254265382</v>
@@ -4807,19 +4807,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L8" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>78.14188814362403</v>
       </c>
-      <c r="N8" t="n">
-        <v>102.4811647785233</v>
-      </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4831,25 +4831,25 @@
         <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="W8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="X8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="9">
@@ -4868,7 +4868,7 @@
         <v>24.84391873418747</v>
       </c>
       <c r="E9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F9" t="n">
         <v>2.80375594835618</v>
@@ -4886,19 +4886,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="N9" t="n">
+        <v>26.38889993046976</v>
+      </c>
+      <c r="O9" t="n">
         <v>51.75298821315428</v>
-      </c>
-      <c r="M9" t="n">
-        <v>51.75298821315428</v>
-      </c>
-      <c r="N9" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="O9" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
         <v>77.1170764958388</v>
@@ -4910,10 +4910,10 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
+        <v>76.6020827637447</v>
+      </c>
+      <c r="T9" t="n">
         <v>50.72300074896609</v>
-      </c>
-      <c r="T9" t="n">
-        <v>24.84391873418747</v>
       </c>
       <c r="U9" t="n">
         <v>24.84391873418747</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.73223474306219</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C10" t="n">
-        <v>99.73223474306219</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D10" t="n">
-        <v>99.73223474306219</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E10" t="n">
-        <v>99.73223474306219</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F10" t="n">
-        <v>99.73223474306219</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>47.97407071350496</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09498869872634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -5004,10 +5004,10 @@
         <v>99.73223474306219</v>
       </c>
       <c r="X10" t="n">
-        <v>99.73223474306219</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.73223474306219</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.205376230772</v>
+        <v>665.9589268285663</v>
       </c>
       <c r="C11" t="n">
-        <v>1514.205376230772</v>
+        <v>665.9589268285663</v>
       </c>
       <c r="D11" t="n">
-        <v>1155.939677624022</v>
+        <v>665.9589268285663</v>
       </c>
       <c r="E11" t="n">
-        <v>770.1514250257774</v>
+        <v>280.170674230322</v>
       </c>
       <c r="F11" t="n">
-        <v>770.1514250257774</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G11" t="n">
-        <v>354.1441395792514</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H11" t="n">
-        <v>129.507762745379</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I11" t="n">
         <v>51.47062640842712</v>
@@ -5068,25 +5068,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T11" t="n">
-        <v>2231.868103638465</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="U11" t="n">
-        <v>2231.868103638465</v>
+        <v>2109.856067767453</v>
       </c>
       <c r="V11" t="n">
-        <v>1900.805216294894</v>
+        <v>1778.793180423882</v>
       </c>
       <c r="W11" t="n">
-        <v>1900.805216294894</v>
+        <v>1426.024525153768</v>
       </c>
       <c r="X11" t="n">
-        <v>1900.805216294894</v>
+        <v>1052.558766892688</v>
       </c>
       <c r="Y11" t="n">
-        <v>1900.805216294894</v>
+        <v>1052.558766892688</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>764.3733272413054</v>
       </c>
       <c r="D12" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800542</v>
       </c>
       <c r="E12" t="n">
-        <v>456.2014625745985</v>
+        <v>456.2014625745987</v>
       </c>
       <c r="F12" t="n">
-        <v>309.6669046014836</v>
+        <v>309.6669046014837</v>
       </c>
       <c r="G12" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571329</v>
       </c>
       <c r="H12" t="n">
-        <v>77.47103387006473</v>
+        <v>77.4710338700645</v>
       </c>
       <c r="I12" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J12" t="n">
-        <v>223.6622844990725</v>
+        <v>98.83215951206779</v>
       </c>
       <c r="K12" t="n">
-        <v>539.009605309785</v>
+        <v>519.755972587571</v>
       </c>
       <c r="L12" t="n">
-        <v>799.2660716510804</v>
+        <v>780.0124389288665</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.329960539167</v>
+        <v>1103.076327816953</v>
       </c>
       <c r="N12" t="n">
-        <v>1759.278962343452</v>
+        <v>1449.09940145305</v>
       </c>
       <c r="O12" t="n">
-        <v>2053.602678427199</v>
+        <v>1743.423117536797</v>
       </c>
       <c r="P12" t="n">
-        <v>2270.490342378294</v>
+        <v>2275.58892244143</v>
       </c>
       <c r="Q12" t="n">
         <v>2573.531320421356</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="C13" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="D13" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="E13" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="F13" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="G13" t="n">
         <v>51.47062640842712</v>
@@ -5223,28 +5223,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R13" t="n">
-        <v>1462.203619423576</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S13" t="n">
-        <v>1263.209871079995</v>
+        <v>1424.135070879712</v>
       </c>
       <c r="T13" t="n">
-        <v>1039.651551862306</v>
+        <v>1200.576751662023</v>
       </c>
       <c r="U13" t="n">
-        <v>750.5258121736447</v>
+        <v>911.4510119733613</v>
       </c>
       <c r="V13" t="n">
-        <v>750.5258121736447</v>
+        <v>911.4510119733613</v>
       </c>
       <c r="W13" t="n">
-        <v>461.1086421366841</v>
+        <v>622.0338419364007</v>
       </c>
       <c r="X13" t="n">
-        <v>233.1190912386668</v>
+        <v>622.0338419364007</v>
       </c>
       <c r="Y13" t="n">
-        <v>233.1190912386668</v>
+        <v>401.2412627928705</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>938.9645071717548</v>
+        <v>1468.263013401573</v>
       </c>
       <c r="C14" t="n">
-        <v>938.9645071717548</v>
+        <v>1099.300496461161</v>
       </c>
       <c r="D14" t="n">
-        <v>938.9645071717548</v>
+        <v>1099.300496461161</v>
       </c>
       <c r="E14" t="n">
-        <v>553.1762545735105</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="F14" t="n">
-        <v>553.1762545735105</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G14" t="n">
-        <v>137.1689691269845</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H14" t="n">
         <v>51.47062640842712</v>
@@ -5278,28 +5278,28 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J14" t="n">
-        <v>329.9913548027439</v>
+        <v>321.256397285258</v>
       </c>
       <c r="K14" t="n">
-        <v>547.2625734173959</v>
+        <v>538.52761589991</v>
       </c>
       <c r="L14" t="n">
-        <v>853.7084944021823</v>
+        <v>844.9735368846964</v>
       </c>
       <c r="M14" t="n">
-        <v>1226.358064749472</v>
+        <v>1217.623107231986</v>
       </c>
       <c r="N14" t="n">
-        <v>1609.651303116945</v>
+        <v>1600.916345599459</v>
       </c>
       <c r="O14" t="n">
-        <v>1958.248977943291</v>
+        <v>1949.514020425805</v>
       </c>
       <c r="P14" t="n">
-        <v>2221.268027456376</v>
+        <v>2212.53306993889</v>
       </c>
       <c r="Q14" t="n">
-        <v>2507.009260908516</v>
+        <v>2572.068516582769</v>
       </c>
       <c r="R14" t="n">
         <v>2573.531320421356</v>
@@ -5308,22 +5308,22 @@
         <v>2441.938092742882</v>
       </c>
       <c r="T14" t="n">
-        <v>2441.938092742882</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U14" t="n">
-        <v>2441.938092742882</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="V14" t="n">
-        <v>2441.938092742882</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="W14" t="n">
-        <v>2089.169437472768</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.703679211688</v>
+        <v>1858.402345377385</v>
       </c>
       <c r="Y14" t="n">
-        <v>1325.564347235877</v>
+        <v>1468.263013401573</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>309.6669046014837</v>
       </c>
       <c r="G15" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571329</v>
       </c>
       <c r="H15" t="n">
-        <v>77.47103387006489</v>
+        <v>77.4710338700645</v>
       </c>
       <c r="I15" t="n">
         <v>51.47062640842712</v>
@@ -5360,25 +5360,25 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K15" t="n">
-        <v>644.5860975745757</v>
+        <v>418.6131345975906</v>
       </c>
       <c r="L15" t="n">
-        <v>1271.974505766296</v>
+        <v>678.869600938886</v>
       </c>
       <c r="M15" t="n">
-        <v>1621.232403565846</v>
+        <v>1315.818602743172</v>
       </c>
       <c r="N15" t="n">
-        <v>1967.255477201943</v>
+        <v>1952.767604547457</v>
       </c>
       <c r="O15" t="n">
-        <v>2261.57919328569</v>
+        <v>2247.091320631204</v>
       </c>
       <c r="P15" t="n">
-        <v>2478.466857236785</v>
+        <v>2463.978984582299</v>
       </c>
       <c r="Q15" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R15" t="n">
         <v>2573.531320421356</v>
@@ -5463,25 +5463,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S16" t="n">
-        <v>1336.245894455642</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T16" t="n">
-        <v>1112.687575237953</v>
+        <v>1082.260287172206</v>
       </c>
       <c r="U16" t="n">
-        <v>823.5618355492919</v>
+        <v>936.5857094861011</v>
       </c>
       <c r="V16" t="n">
-        <v>568.8773473434051</v>
+        <v>681.9012212802143</v>
       </c>
       <c r="W16" t="n">
-        <v>279.4601773064445</v>
+        <v>681.9012212802143</v>
       </c>
       <c r="X16" t="n">
-        <v>51.47062640842712</v>
+        <v>453.9116703821969</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.47062640842712</v>
+        <v>233.1190912386668</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1513.667964723567</v>
+        <v>820.7222298047852</v>
       </c>
       <c r="C17" t="n">
-        <v>1513.667964723567</v>
+        <v>820.7222298047852</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.402266116816</v>
+        <v>462.4565311980347</v>
       </c>
       <c r="E17" t="n">
-        <v>769.6140135185722</v>
+        <v>462.4565311980347</v>
       </c>
       <c r="F17" t="n">
-        <v>358.6281087289645</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G17" t="n">
-        <v>358.6281087289645</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H17" t="n">
         <v>51.47062640842712</v>
@@ -5515,28 +5515,28 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J17" t="n">
-        <v>162.5857057823909</v>
+        <v>329.9913548027439</v>
       </c>
       <c r="K17" t="n">
-        <v>379.8569243970429</v>
+        <v>547.2625734173959</v>
       </c>
       <c r="L17" t="n">
-        <v>686.3028453818293</v>
+        <v>853.7084944021823</v>
       </c>
       <c r="M17" t="n">
-        <v>1058.952415729119</v>
+        <v>1226.358064749472</v>
       </c>
       <c r="N17" t="n">
-        <v>1442.245654096592</v>
+        <v>1609.651303116945</v>
       </c>
       <c r="O17" t="n">
-        <v>1790.843328922938</v>
+        <v>1958.248977943291</v>
       </c>
       <c r="P17" t="n">
-        <v>2147.473814264637</v>
+        <v>2221.268027456376</v>
       </c>
       <c r="Q17" t="n">
-        <v>2507.009260908516</v>
+        <v>2572.068516582769</v>
       </c>
       <c r="R17" t="n">
         <v>2573.531320421356</v>
@@ -5548,19 +5548,19 @@
         <v>2573.531320421356</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.926056871871</v>
+        <v>2323.695815375913</v>
       </c>
       <c r="V17" t="n">
-        <v>1988.8631695283</v>
+        <v>2323.695815375913</v>
       </c>
       <c r="W17" t="n">
-        <v>1636.094514258186</v>
+        <v>1970.927160105799</v>
       </c>
       <c r="X17" t="n">
-        <v>1513.667964723567</v>
+        <v>1597.461401844719</v>
       </c>
       <c r="Y17" t="n">
-        <v>1513.667964723567</v>
+        <v>1207.322069868907</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C18" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D18" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E18" t="n">
-        <v>456.2014625745991</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F18" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G18" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H18" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006473</v>
       </c>
       <c r="I18" t="n">
         <v>51.47062640842712</v>
@@ -5600,16 +5600,16 @@
         <v>644.5860975745757</v>
       </c>
       <c r="L18" t="n">
-        <v>1075.704127164783</v>
+        <v>904.8425639158711</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.768016052869</v>
+        <v>1227.906452803957</v>
       </c>
       <c r="N18" t="n">
-        <v>1744.791089688967</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.114805772714</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P18" t="n">
         <v>2256.002469723809</v>
@@ -5621,13 +5621,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T18" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U18" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V18" t="n">
         <v>1776.890849241189</v>
@@ -5636,7 +5636,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X18" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y18" t="n">
         <v>1107.041693542501</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>370.5234487486698</v>
+        <v>496.2191230025672</v>
       </c>
       <c r="C19" t="n">
-        <v>201.5872658207628</v>
+        <v>496.2191230025672</v>
       </c>
       <c r="D19" t="n">
-        <v>51.47062640842712</v>
+        <v>496.2191230025672</v>
       </c>
       <c r="E19" t="n">
-        <v>51.47062640842712</v>
+        <v>348.3060294201741</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47062640842712</v>
+        <v>201.4160819222638</v>
       </c>
       <c r="G19" t="n">
-        <v>51.47062640842712</v>
+        <v>201.4160819222638</v>
       </c>
       <c r="H19" t="n">
         <v>51.47062640842712</v>
@@ -5700,25 +5700,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S19" t="n">
-        <v>1305.818606389895</v>
+        <v>1329.446520934076</v>
       </c>
       <c r="T19" t="n">
-        <v>1305.818606389895</v>
+        <v>1329.446520934076</v>
       </c>
       <c r="U19" t="n">
-        <v>1027.648980928326</v>
+        <v>1040.320781245415</v>
       </c>
       <c r="V19" t="n">
-        <v>772.9644927224396</v>
+        <v>785.6362930395278</v>
       </c>
       <c r="W19" t="n">
-        <v>772.9644927224396</v>
+        <v>496.2191230025672</v>
       </c>
       <c r="X19" t="n">
-        <v>772.9644927224396</v>
+        <v>496.2191230025672</v>
       </c>
       <c r="Y19" t="n">
-        <v>552.1719135789094</v>
+        <v>496.2191230025672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1965.688998657849</v>
+        <v>1291.733162441869</v>
       </c>
       <c r="C20" t="n">
-        <v>1596.726481717437</v>
+        <v>1291.733162441869</v>
       </c>
       <c r="D20" t="n">
-        <v>1238.460783110687</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6725305124423</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="F20" t="n">
-        <v>852.6725305124423</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G20" t="n">
-        <v>436.6652450659164</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H20" t="n">
-        <v>129.507762745379</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I20" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J20" t="n">
-        <v>162.5857057823909</v>
+        <v>321.256397285258</v>
       </c>
       <c r="K20" t="n">
-        <v>379.8569243970429</v>
+        <v>538.52761589991</v>
       </c>
       <c r="L20" t="n">
-        <v>686.3028453818293</v>
+        <v>844.9735368846964</v>
       </c>
       <c r="M20" t="n">
-        <v>1323.251847186115</v>
+        <v>1217.623107231986</v>
       </c>
       <c r="N20" t="n">
-        <v>1706.545085553588</v>
+        <v>1600.916345599459</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.142760379934</v>
+        <v>1949.514020425805</v>
       </c>
       <c r="P20" t="n">
-        <v>2318.161809893019</v>
+        <v>2212.53306993889</v>
       </c>
       <c r="Q20" t="n">
-        <v>2507.009260908516</v>
+        <v>2572.068516582769</v>
       </c>
       <c r="R20" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S20" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T20" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="U20" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="V20" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="W20" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="X20" t="n">
-        <v>2573.531320421356</v>
+        <v>2068.472334481803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2183.391988445544</v>
+        <v>1678.333002505991</v>
       </c>
     </row>
     <row r="21">
@@ -5849,10 +5849,10 @@
         <v>1868.253242523802</v>
       </c>
       <c r="P21" t="n">
-        <v>2400.419047428435</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q21" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R21" t="n">
         <v>2573.531320421356</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.3264898289732</v>
+        <v>220.406809336334</v>
       </c>
       <c r="C22" t="n">
-        <v>496.3903069010663</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D22" t="n">
-        <v>346.2736674887306</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E22" t="n">
-        <v>198.3605739063375</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F22" t="n">
         <v>51.47062640842712</v>
@@ -5934,28 +5934,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R22" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="S22" t="n">
-        <v>1504.812354733476</v>
+        <v>1247.731849103503</v>
       </c>
       <c r="T22" t="n">
-        <v>1504.812354733476</v>
+        <v>1247.731849103503</v>
       </c>
       <c r="U22" t="n">
-        <v>1504.812354733476</v>
+        <v>958.6061094148422</v>
       </c>
       <c r="V22" t="n">
-        <v>1250.127866527589</v>
+        <v>958.6061094148422</v>
       </c>
       <c r="W22" t="n">
-        <v>1250.127866527589</v>
+        <v>669.1889393778815</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.767533802743</v>
+        <v>441.1993884798641</v>
       </c>
       <c r="Y22" t="n">
-        <v>846.9749546592129</v>
+        <v>220.406809336334</v>
       </c>
     </row>
     <row r="23">
@@ -6074,22 +6074,22 @@
         <v>690.1462717842323</v>
       </c>
       <c r="L24" t="n">
-        <v>1028.450547933878</v>
+        <v>1317.534679975952</v>
       </c>
       <c r="M24" t="n">
-        <v>1351.514436821964</v>
+        <v>1640.598568864038</v>
       </c>
       <c r="N24" t="n">
-        <v>1697.537510458062</v>
+        <v>1986.621642500136</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.861226541809</v>
+        <v>2280.945358583883</v>
       </c>
       <c r="P24" t="n">
-        <v>2524.027031446442</v>
+        <v>2497.833022534978</v>
       </c>
       <c r="Q24" t="n">
-        <v>2619.091494631013</v>
+        <v>2604.603621976527</v>
       </c>
       <c r="R24" t="n">
         <v>2619.091494631013</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.03080061808376</v>
+        <v>698.8832722038804</v>
       </c>
       <c r="C25" t="n">
-        <v>97.03080061808376</v>
+        <v>529.9470892759736</v>
       </c>
       <c r="D25" t="n">
-        <v>97.03080061808376</v>
+        <v>379.8304498636378</v>
       </c>
       <c r="E25" t="n">
-        <v>97.03080061808376</v>
+        <v>379.8304498636378</v>
       </c>
       <c r="F25" t="n">
-        <v>97.03080061808376</v>
+        <v>232.9405023657274</v>
       </c>
       <c r="G25" t="n">
-        <v>97.03080061808376</v>
+        <v>232.9405023657274</v>
       </c>
       <c r="H25" t="n">
-        <v>97.03080061808376</v>
+        <v>206.9670227531589</v>
       </c>
       <c r="I25" t="n">
         <v>97.03080061808376</v>
@@ -6171,28 +6171,28 @@
         <v>1550.372528943132</v>
       </c>
       <c r="R25" t="n">
-        <v>1550.372528943132</v>
+        <v>1441.687248442009</v>
       </c>
       <c r="S25" t="n">
-        <v>1374.609096910812</v>
+        <v>1242.693500098429</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.050777693123</v>
+        <v>1242.693500098429</v>
       </c>
       <c r="U25" t="n">
-        <v>861.9250380044613</v>
+        <v>953.5677604097673</v>
       </c>
       <c r="V25" t="n">
-        <v>607.2405497985744</v>
+        <v>698.8832722038804</v>
       </c>
       <c r="W25" t="n">
-        <v>317.8233797616139</v>
+        <v>698.8832722038804</v>
       </c>
       <c r="X25" t="n">
-        <v>317.8233797616139</v>
+        <v>698.8832722038804</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.03080061808376</v>
+        <v>698.8832722038804</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>375.5515290124006</v>
       </c>
       <c r="K26" t="n">
-        <v>913.7267060725057</v>
+        <v>764.42771443789</v>
       </c>
       <c r="L26" t="n">
         <v>1484.358237827622</v>
@@ -6323,10 +6323,10 @@
         <v>1913.813416733459</v>
       </c>
       <c r="P27" t="n">
-        <v>2316.050516587951</v>
+        <v>2301.562643933466</v>
       </c>
       <c r="Q27" t="n">
-        <v>2619.091494631013</v>
+        <v>2604.603621976527</v>
       </c>
       <c r="R27" t="n">
         <v>2619.091494631013</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1028.95429110667</v>
+        <v>244.9438942004769</v>
       </c>
       <c r="C28" t="n">
-        <v>860.0181081787634</v>
+        <v>244.9438942004769</v>
       </c>
       <c r="D28" t="n">
-        <v>709.9014687664277</v>
+        <v>244.9438942004769</v>
       </c>
       <c r="E28" t="n">
-        <v>561.9883751840346</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F28" t="n">
-        <v>415.0984276861242</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G28" t="n">
-        <v>246.9762561319204</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H28" t="n">
         <v>97.03080061808376</v>
@@ -6414,22 +6414,22 @@
         <v>1351.378780599552</v>
       </c>
       <c r="T28" t="n">
-        <v>1351.378780599552</v>
+        <v>1130.058977278151</v>
       </c>
       <c r="U28" t="n">
-        <v>1351.378780599552</v>
+        <v>1130.058977278151</v>
       </c>
       <c r="V28" t="n">
-        <v>1351.378780599552</v>
+        <v>875.3744890722641</v>
       </c>
       <c r="W28" t="n">
-        <v>1351.378780599552</v>
+        <v>875.3744890722641</v>
       </c>
       <c r="X28" t="n">
-        <v>1351.378780599552</v>
+        <v>647.3849381742467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.60275593691</v>
+        <v>426.5923590307166</v>
       </c>
     </row>
     <row r="29">
@@ -6481,10 +6481,10 @@
         <v>3993.181745779233</v>
       </c>
       <c r="P29" t="n">
-        <v>4490.541780421722</v>
+        <v>4574.781516382086</v>
       </c>
       <c r="Q29" t="n">
-        <v>4850.077227065601</v>
+        <v>4785.017971391349</v>
       </c>
       <c r="R29" t="n">
         <v>4851.540030904188</v>
@@ -6542,28 +6542,28 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J30" t="n">
-        <v>144.3923337217244</v>
+        <v>269.2224587087292</v>
       </c>
       <c r="K30" t="n">
-        <v>303.4955621547748</v>
+        <v>690.1462717842323</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7520284960702</v>
+        <v>1121.26430137444</v>
       </c>
       <c r="M30" t="n">
-        <v>1347.863930496656</v>
+        <v>1444.328190262526</v>
       </c>
       <c r="N30" t="n">
-        <v>1693.887004132754</v>
+        <v>1790.351263898624</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.139367495347</v>
+        <v>2084.674979982371</v>
       </c>
       <c r="P30" t="n">
-        <v>2524.027031446442</v>
+        <v>2301.562643933466</v>
       </c>
       <c r="Q30" t="n">
-        <v>2619.091494631013</v>
+        <v>2604.603621976527</v>
       </c>
       <c r="R30" t="n">
         <v>2619.091494631013</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.0984276861242</v>
+        <v>541.950481110723</v>
       </c>
       <c r="C31" t="n">
-        <v>415.0984276861242</v>
+        <v>541.950481110723</v>
       </c>
       <c r="D31" t="n">
-        <v>415.0984276861242</v>
+        <v>391.8338416983872</v>
       </c>
       <c r="E31" t="n">
-        <v>415.0984276861242</v>
+        <v>243.9207481159941</v>
       </c>
       <c r="F31" t="n">
-        <v>415.0984276861242</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G31" t="n">
-        <v>246.9762561319204</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H31" t="n">
         <v>97.03080061808376</v>
@@ -6645,28 +6645,28 @@
         <v>1550.372528943132</v>
       </c>
       <c r="R31" t="n">
-        <v>1441.687248442009</v>
+        <v>1550.372528943132</v>
       </c>
       <c r="S31" t="n">
-        <v>1441.687248442009</v>
+        <v>1550.372528943132</v>
       </c>
       <c r="T31" t="n">
-        <v>1441.687248442009</v>
+        <v>1375.177879042232</v>
       </c>
       <c r="U31" t="n">
-        <v>1179.992665072502</v>
+        <v>1086.052139353571</v>
       </c>
       <c r="V31" t="n">
-        <v>925.308176866615</v>
+        <v>831.3676511476835</v>
       </c>
       <c r="W31" t="n">
-        <v>635.8910068296543</v>
+        <v>541.950481110723</v>
       </c>
       <c r="X31" t="n">
-        <v>635.8910068296543</v>
+        <v>541.950481110723</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.0984276861242</v>
+        <v>541.950481110723</v>
       </c>
     </row>
     <row r="32">
@@ -6703,13 +6703,13 @@
         <v>375.5515290124006</v>
       </c>
       <c r="K32" t="n">
-        <v>913.7267060725057</v>
+        <v>764.42771443789</v>
       </c>
       <c r="L32" t="n">
-        <v>1633.657229462238</v>
+        <v>1484.358237827622</v>
       </c>
       <c r="M32" t="n">
-        <v>2451.325197967432</v>
+        <v>2302.026206332816</v>
       </c>
       <c r="N32" t="n">
         <v>3118.292899868154</v>
@@ -6779,28 +6779,28 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J33" t="n">
-        <v>144.3923337217244</v>
+        <v>269.2224587087292</v>
       </c>
       <c r="K33" t="n">
-        <v>565.3161467972276</v>
+        <v>690.1462717842323</v>
       </c>
       <c r="L33" t="n">
-        <v>825.572613138523</v>
+        <v>950.4027381255278</v>
       </c>
       <c r="M33" t="n">
-        <v>1148.636502026609</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N33" t="n">
-        <v>1494.659575662707</v>
+        <v>1619.489700649711</v>
       </c>
       <c r="O33" t="n">
-        <v>1788.983291746454</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P33" t="n">
-        <v>2321.149096651087</v>
+        <v>2301.562643933466</v>
       </c>
       <c r="Q33" t="n">
-        <v>2619.091494631013</v>
+        <v>2604.603621976527</v>
       </c>
       <c r="R33" t="n">
         <v>2619.091494631013</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.5972608959173</v>
+        <v>841.8839263314993</v>
       </c>
       <c r="C34" t="n">
-        <v>265.5972608959173</v>
+        <v>672.9477434035924</v>
       </c>
       <c r="D34" t="n">
-        <v>115.4806214835815</v>
+        <v>672.9477434035924</v>
       </c>
       <c r="E34" t="n">
-        <v>115.4806214835815</v>
+        <v>525.0346498211993</v>
       </c>
       <c r="F34" t="n">
-        <v>115.4806214835815</v>
+        <v>525.0346498211993</v>
       </c>
       <c r="G34" t="n">
-        <v>97.03080061808376</v>
+        <v>356.9124782669955</v>
       </c>
       <c r="H34" t="n">
-        <v>97.03080061808376</v>
+        <v>206.9670227531589</v>
       </c>
       <c r="I34" t="n">
         <v>97.03080061808376</v>
@@ -6882,28 +6882,28 @@
         <v>1550.372528943132</v>
       </c>
       <c r="R34" t="n">
-        <v>1550.372528943132</v>
+        <v>1441.687248442009</v>
       </c>
       <c r="S34" t="n">
-        <v>1550.372528943132</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.814209725443</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.688470036782</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="V34" t="n">
-        <v>783.0039818308952</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="W34" t="n">
-        <v>493.5868117939346</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="X34" t="n">
-        <v>265.5972608959173</v>
+        <v>1244.324970305269</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.5972608959173</v>
+        <v>1023.532391161739</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1312.430265432835</v>
+        <v>1513.667964723567</v>
       </c>
       <c r="C35" t="n">
-        <v>1312.430265432835</v>
+        <v>1513.667964723567</v>
       </c>
       <c r="D35" t="n">
-        <v>1312.430265432835</v>
+        <v>1155.402266116816</v>
       </c>
       <c r="E35" t="n">
-        <v>926.6420128345903</v>
+        <v>769.6140135185722</v>
       </c>
       <c r="F35" t="n">
-        <v>515.6561080449828</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="G35" t="n">
-        <v>99.64882259845683</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="H35" t="n">
-        <v>99.64882259845683</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I35" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J35" t="n">
-        <v>321.256397285258</v>
+        <v>329.9913548027439</v>
       </c>
       <c r="K35" t="n">
-        <v>538.52761589991</v>
+        <v>547.2625734173959</v>
       </c>
       <c r="L35" t="n">
-        <v>844.9735368846964</v>
+        <v>853.7084944021823</v>
       </c>
       <c r="M35" t="n">
-        <v>1217.623107231986</v>
+        <v>1226.358064749472</v>
       </c>
       <c r="N35" t="n">
-        <v>1600.916345599459</v>
+        <v>1609.651303116945</v>
       </c>
       <c r="O35" t="n">
-        <v>1949.514020425805</v>
+        <v>1958.248977943291</v>
       </c>
       <c r="P35" t="n">
-        <v>2212.53306993889</v>
+        <v>2221.268027456376</v>
       </c>
       <c r="Q35" t="n">
         <v>2572.068516582769</v>
@@ -6964,25 +6964,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S35" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T35" t="n">
-        <v>2441.938092742882</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="U35" t="n">
-        <v>2441.938092742882</v>
+        <v>2277.273054960458</v>
       </c>
       <c r="V35" t="n">
-        <v>2441.938092742882</v>
+        <v>2277.273054960458</v>
       </c>
       <c r="W35" t="n">
-        <v>2089.169437472768</v>
+        <v>2277.273054960458</v>
       </c>
       <c r="X35" t="n">
-        <v>2089.169437472768</v>
+        <v>1903.807296699379</v>
       </c>
       <c r="Y35" t="n">
-        <v>1699.030105496956</v>
+        <v>1513.667964723567</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>764.3733272413054</v>
       </c>
       <c r="D36" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800542</v>
       </c>
       <c r="E36" t="n">
-        <v>456.2014625745985</v>
+        <v>456.2014625745987</v>
       </c>
       <c r="F36" t="n">
-        <v>309.6669046014836</v>
+        <v>309.6669046014837</v>
       </c>
       <c r="G36" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571329</v>
       </c>
       <c r="H36" t="n">
-        <v>77.47103387006473</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I36" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J36" t="n">
-        <v>98.83215951206779</v>
+        <v>223.6622844990725</v>
       </c>
       <c r="K36" t="n">
-        <v>519.755972587571</v>
+        <v>644.5860975745757</v>
       </c>
       <c r="L36" t="n">
-        <v>780.0124389288665</v>
+        <v>1075.704127164783</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.076327816953</v>
+        <v>1398.768016052869</v>
       </c>
       <c r="N36" t="n">
-        <v>1449.09940145305</v>
+        <v>1744.791089688966</v>
       </c>
       <c r="O36" t="n">
-        <v>1743.423117536797</v>
+        <v>2039.114805772713</v>
       </c>
       <c r="P36" t="n">
-        <v>2275.58892244143</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R36" t="n">
         <v>2573.531320421356</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>221.8862514660174</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C37" t="n">
-        <v>52.95006853811049</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D37" t="n">
-        <v>52.95006853811049</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E37" t="n">
         <v>51.47062640842712</v>
@@ -7119,28 +7119,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R37" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T37" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="U37" t="n">
-        <v>1107.001334543691</v>
+        <v>1226.002879523062</v>
       </c>
       <c r="V37" t="n">
-        <v>852.3168463378046</v>
+        <v>971.3183913171749</v>
       </c>
       <c r="W37" t="n">
-        <v>852.3168463378046</v>
+        <v>681.9012212802143</v>
       </c>
       <c r="X37" t="n">
-        <v>624.3272954397872</v>
+        <v>453.9116703821969</v>
       </c>
       <c r="Y37" t="n">
-        <v>403.5347162962571</v>
+        <v>233.1190912386668</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1524.364783057228</v>
+        <v>994.501459892306</v>
       </c>
       <c r="C38" t="n">
-        <v>1155.402266116816</v>
+        <v>625.5389429518943</v>
       </c>
       <c r="D38" t="n">
-        <v>1155.402266116816</v>
+        <v>625.5389429518943</v>
       </c>
       <c r="E38" t="n">
-        <v>769.6140135185722</v>
+        <v>625.5389429518943</v>
       </c>
       <c r="F38" t="n">
-        <v>358.6281087289645</v>
+        <v>214.5530381622868</v>
       </c>
       <c r="G38" t="n">
-        <v>358.6281087289645</v>
+        <v>214.5530381622868</v>
       </c>
       <c r="H38" t="n">
         <v>51.47062640842712</v>
@@ -7174,52 +7174,52 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J38" t="n">
-        <v>321.256397285258</v>
+        <v>162.5857057823909</v>
       </c>
       <c r="K38" t="n">
-        <v>538.52761589991</v>
+        <v>379.8569243970429</v>
       </c>
       <c r="L38" t="n">
-        <v>844.9735368846964</v>
+        <v>686.3028453818293</v>
       </c>
       <c r="M38" t="n">
-        <v>1217.623107231986</v>
+        <v>1323.251847186115</v>
       </c>
       <c r="N38" t="n">
-        <v>1600.916345599459</v>
+        <v>1706.545085553588</v>
       </c>
       <c r="O38" t="n">
-        <v>1949.514020425805</v>
+        <v>2055.142760379934</v>
       </c>
       <c r="P38" t="n">
-        <v>2212.53306993889</v>
+        <v>2318.161809893019</v>
       </c>
       <c r="Q38" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R38" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S38" t="n">
-        <v>2498.039862398537</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T38" t="n">
-        <v>2287.96987329412</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="U38" t="n">
-        <v>2287.96987329412</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="V38" t="n">
-        <v>2287.96987329412</v>
+        <v>2110.875205399312</v>
       </c>
       <c r="W38" t="n">
-        <v>2287.96987329412</v>
+        <v>1758.106550129198</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.50411503304</v>
+        <v>1384.640791868118</v>
       </c>
       <c r="Y38" t="n">
-        <v>1524.364783057228</v>
+        <v>994.501459892306</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>644.5860975745757</v>
       </c>
       <c r="L39" t="n">
-        <v>968.402501069736</v>
+        <v>1075.704127164783</v>
       </c>
       <c r="M39" t="n">
-        <v>1291.466389957822</v>
+        <v>1398.768016052869</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.48946359392</v>
+        <v>1744.791089688967</v>
       </c>
       <c r="O39" t="n">
-        <v>1931.813179677667</v>
+        <v>2039.114805772714</v>
       </c>
       <c r="P39" t="n">
-        <v>2463.9789845823</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q39" t="n">
         <v>2559.04344776687</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>476.4189675956163</v>
+        <v>732.7211455926108</v>
       </c>
       <c r="C40" t="n">
-        <v>476.4189675956163</v>
+        <v>732.7211455926108</v>
       </c>
       <c r="D40" t="n">
-        <v>476.4189675956163</v>
+        <v>664.341294556771</v>
       </c>
       <c r="E40" t="n">
-        <v>476.4189675956163</v>
+        <v>516.4282009743779</v>
       </c>
       <c r="F40" t="n">
-        <v>329.5290200977059</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="G40" t="n">
-        <v>161.4068485435022</v>
+        <v>201.4160819222638</v>
       </c>
       <c r="H40" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I40" t="n">
         <v>51.47062640842712</v>
@@ -7377,7 +7377,7 @@
         <v>732.7211455926108</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.0674324258561</v>
+        <v>732.7211455926108</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1571.409551563342</v>
+        <v>1929.675250170093</v>
       </c>
       <c r="C41" t="n">
-        <v>1571.409551563342</v>
+        <v>1929.675250170093</v>
       </c>
       <c r="D41" t="n">
         <v>1571.409551563342</v>
@@ -7411,25 +7411,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J41" t="n">
-        <v>321.256397285258</v>
+        <v>329.9913548027439</v>
       </c>
       <c r="K41" t="n">
-        <v>538.52761589991</v>
+        <v>748.7194566532153</v>
       </c>
       <c r="L41" t="n">
-        <v>844.9735368846964</v>
+        <v>1055.165377638002</v>
       </c>
       <c r="M41" t="n">
-        <v>1217.623107231986</v>
+        <v>1427.814947985292</v>
       </c>
       <c r="N41" t="n">
-        <v>1600.916345599459</v>
+        <v>1811.108186352765</v>
       </c>
       <c r="O41" t="n">
-        <v>1949.514020425805</v>
+        <v>2159.70586117911</v>
       </c>
       <c r="P41" t="n">
-        <v>2212.53306993889</v>
+        <v>2422.724910692195</v>
       </c>
       <c r="Q41" t="n">
         <v>2572.068516582769</v>
@@ -7441,22 +7441,22 @@
         <v>2441.938092742882</v>
       </c>
       <c r="T41" t="n">
-        <v>2231.868103638465</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="U41" t="n">
-        <v>2231.868103638465</v>
+        <v>2319.814582145905</v>
       </c>
       <c r="V41" t="n">
-        <v>2231.868103638465</v>
+        <v>2319.814582145905</v>
       </c>
       <c r="W41" t="n">
-        <v>2231.868103638465</v>
+        <v>2319.814582145905</v>
       </c>
       <c r="X41" t="n">
-        <v>2231.868103638465</v>
+        <v>2319.814582145905</v>
       </c>
       <c r="Y41" t="n">
-        <v>1841.728771662653</v>
+        <v>1929.675250170093</v>
       </c>
     </row>
     <row r="42">
@@ -7472,16 +7472,16 @@
         <v>764.3733272413054</v>
       </c>
       <c r="D42" t="n">
-        <v>615.4389175800542</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E42" t="n">
-        <v>456.2014625745987</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F42" t="n">
-        <v>309.6669046014837</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G42" t="n">
-        <v>172.8036234571329</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H42" t="n">
         <v>77.47103387006489</v>
@@ -7496,16 +7496,16 @@
         <v>644.5860975745757</v>
       </c>
       <c r="L42" t="n">
-        <v>904.8425639158711</v>
+        <v>1075.704127164783</v>
       </c>
       <c r="M42" t="n">
-        <v>1227.906452803957</v>
+        <v>1398.768016052869</v>
       </c>
       <c r="N42" t="n">
-        <v>1573.929526440055</v>
+        <v>1744.791089688966</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.253242523802</v>
+        <v>2039.114805772713</v>
       </c>
       <c r="P42" t="n">
         <v>2256.002469723809</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.3264898289732</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C43" t="n">
-        <v>496.3903069010663</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D43" t="n">
-        <v>346.2736674887306</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E43" t="n">
-        <v>198.3605739063375</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F43" t="n">
         <v>51.47062640842712</v>
@@ -7596,25 +7596,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S43" t="n">
-        <v>1504.812354733476</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T43" t="n">
-        <v>1281.254035515787</v>
+        <v>1082.260287172206</v>
       </c>
       <c r="U43" t="n">
-        <v>1281.254035515787</v>
+        <v>793.1345474835446</v>
       </c>
       <c r="V43" t="n">
-        <v>1281.254035515787</v>
+        <v>538.4500592776577</v>
       </c>
       <c r="W43" t="n">
-        <v>1074.96450555723</v>
+        <v>272.2632055519572</v>
       </c>
       <c r="X43" t="n">
-        <v>846.9749546592129</v>
+        <v>272.2632055519572</v>
       </c>
       <c r="Y43" t="n">
-        <v>846.9749546592129</v>
+        <v>51.47062640842712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1605.692032191723</v>
+        <v>1222.228681393609</v>
       </c>
       <c r="C44" t="n">
-        <v>1236.729515251311</v>
+        <v>853.2661644531973</v>
       </c>
       <c r="D44" t="n">
-        <v>878.4638166445607</v>
+        <v>853.2661644531973</v>
       </c>
       <c r="E44" t="n">
-        <v>878.4638166445607</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="F44" t="n">
         <v>467.4779118549531</v>
@@ -7675,25 +7675,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S44" t="n">
-        <v>2558.670008542067</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T44" t="n">
-        <v>2348.600019437649</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="U44" t="n">
-        <v>2348.600019437649</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="V44" t="n">
-        <v>2348.600019437649</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="W44" t="n">
-        <v>1995.831364167535</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="X44" t="n">
-        <v>1995.831364167535</v>
+        <v>1998.967853433543</v>
       </c>
       <c r="Y44" t="n">
-        <v>1605.692032191723</v>
+        <v>1608.828521457731</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C45" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D45" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E45" t="n">
-        <v>456.2014625745991</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F45" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G45" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H45" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006473</v>
       </c>
       <c r="I45" t="n">
         <v>51.47062640842712</v>
@@ -7730,19 +7730,19 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K45" t="n">
-        <v>644.5860975745757</v>
+        <v>382.7655129321229</v>
       </c>
       <c r="L45" t="n">
-        <v>904.8425639158711</v>
+        <v>643.0219792734183</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.906452803957</v>
+        <v>966.0858681615045</v>
       </c>
       <c r="N45" t="n">
-        <v>1573.929526440055</v>
+        <v>1312.108941797602</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.253242523802</v>
+        <v>1723.836664819176</v>
       </c>
       <c r="P45" t="n">
         <v>2256.002469723809</v>
@@ -7754,13 +7754,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T45" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U45" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V45" t="n">
         <v>1776.890849241189</v>
@@ -7769,7 +7769,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X45" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y45" t="n">
         <v>1107.041693542501</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>502.5093718038823</v>
+        <v>523.828401034084</v>
       </c>
       <c r="C46" t="n">
-        <v>502.5093718038823</v>
+        <v>354.8922181061771</v>
       </c>
       <c r="D46" t="n">
-        <v>352.3927323915466</v>
+        <v>354.8922181061771</v>
       </c>
       <c r="E46" t="n">
-        <v>204.4796388091535</v>
+        <v>354.8922181061771</v>
       </c>
       <c r="F46" t="n">
-        <v>204.4796388091535</v>
+        <v>208.0022706082667</v>
       </c>
       <c r="G46" t="n">
-        <v>201.4160819222638</v>
+        <v>208.0022706082667</v>
       </c>
       <c r="H46" t="n">
-        <v>51.47062640842712</v>
+        <v>58.05681509443008</v>
       </c>
       <c r="I46" t="n">
         <v>51.47062640842712</v>
@@ -7830,28 +7830,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R46" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S46" t="n">
-        <v>1197.133325888772</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T46" t="n">
-        <v>973.5750066710827</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="U46" t="n">
-        <v>973.5750066710827</v>
+        <v>1215.686615044815</v>
       </c>
       <c r="V46" t="n">
-        <v>973.5750066710827</v>
+        <v>1215.686615044815</v>
       </c>
       <c r="W46" t="n">
-        <v>684.1578366341221</v>
+        <v>926.2694450078538</v>
       </c>
       <c r="X46" t="n">
-        <v>684.1578366341221</v>
+        <v>926.2694450078538</v>
       </c>
       <c r="Y46" t="n">
-        <v>684.1578366341221</v>
+        <v>705.4768658643237</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>244.715801111726</v>
@@ -7996,7 +7996,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,7 +8300,7 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>157.4367714371534</v>
@@ -8312,7 +8312,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8379,7 +8379,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
@@ -8388,7 +8388,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>261.3867061646181</v>
@@ -8464,13 +8464,13 @@
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
         <v>165.6020652806523</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>157.822315532992</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>293.8645739072606</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>204.9272068639945</v>
       </c>
       <c r="R12" t="n">
         <v>30.88745500881015</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>160.2734257604718</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.7753813753203</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>36.20971885400775</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.45859486006412</v>
+        <v>317.0556696123226</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>293.8645739072606</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>94.55700588748948</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>203.4918012483028</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>172.5874376251637</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>172.5874376251632</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>160.2734257604718</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>266.969122683834</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>39.90287386355965</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>172.5874376251637</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.83617152358622</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>78.83617152358624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.82438005755392</v>
       </c>
       <c r="R24" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>173.3383503139772</v>
       </c>
       <c r="L26" t="n">
-        <v>266.8541522932629</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>187.2216524276743</v>
+        <v>172.5874376251635</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>236.708065787277</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>61.50792840271674</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>172.5874376251637</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>322.1501487665111</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>173.3383503139772</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>286.5398621547963</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>172.5874376251635</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.9272068639949</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.2734257604718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>203.4918012483028</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>172.5874376251632</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.9272068639945</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>30.88745500881015</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.2734257604718</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>266.969122683834</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>39.90287386355965</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>64.20195672107565</v>
+        <v>172.5874376251637</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.2734257604718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>203.4918012483024</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>172.5874376251632</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>172.5874376251632</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>118.5899059978046</v>
       </c>
       <c r="P45" t="n">
-        <v>172.5874376251637</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>180.4629983980355</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H11" t="n">
-        <v>81.69589443179839</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.4460009586983</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.41577973931095</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>117.1332998449186</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>163.3020570538271</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.2445482059603</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I14" t="n">
         <v>77.25676497358231</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0692109139906</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,25 +23703,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S16" t="n">
-        <v>30.12301518509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>142.016650382531</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>411.8472125920607</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I17" t="n">
         <v>77.25676497358231</v>
@@ -23788,19 +23788,19 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.732060919002095</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>248.5288166391965</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4409498386617</v>
       </c>
       <c r="H19" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>108.8368599137244</v>
@@ -23940,25 +23940,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>23.39163539873928</v>
       </c>
       <c r="T19" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U19" t="n">
-        <v>10.84655308482184</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.2078817736623</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>327.4767593536095</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>207.9692892133734</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4409498386617</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.003810860145</v>
+        <v>50.0925379825843</v>
       </c>
       <c r="T22" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>45.17292599143974</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4409498386617</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4460009586983</v>
+        <v>122.7322561422554</v>
       </c>
       <c r="I25" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>22.99801314814755</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I28" t="n">
         <v>108.8368599137244</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3227360255122</v>
+        <v>2.216130737325443</v>
       </c>
       <c r="U28" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.21638893607951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I31" t="n">
         <v>108.8368599137244</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S31" t="n">
         <v>197.003810860145</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3227360255122</v>
+        <v>47.88003262362051</v>
       </c>
       <c r="U31" t="n">
-        <v>27.15684475596231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>148.1756271818189</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.003810860145</v>
+        <v>1.615155504772133</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H35" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.56035074545289</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T35" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0692109139906</v>
+        <v>165.7428173210759</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>144.9693149381826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S37" t="n">
         <v>197.003810860145</v>
@@ -25368,13 +25368,13 @@
         <v>221.3227360255122</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>10.21310183346492</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>411.8472125920607</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>142.634319861011</v>
       </c>
       <c r="I38" t="n">
         <v>77.25676497358231</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.54075195909866</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U38" t="n">
         <v>251.0692109139906</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>80.91942049273095</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.6774773170076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>115.1178137651631</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0692109139906</v>
+        <v>130.1669354229827</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4409498386617</v>
@@ -25836,25 +25836,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S43" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.29636367762021</v>
+        <v>22.99801314814755</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>115.5645966411925</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0692109139906</v>
+        <v>182.2597746762132</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4080285206409</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>108.8368599137244</v>
+        <v>102.3165331145814</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662398.6443118788</v>
+        <v>662398.6443118789</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662398.6443118787</v>
+        <v>662398.6443118789</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896482.7301223476</v>
+        <v>896482.7301223475</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662398.6443118788</v>
+        <v>662398.6443118789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662398.6443118788</v>
+        <v>662398.6443118789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>662398.6443118789</v>
+        <v>662398.6443118788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>425245.7963641357</v>
+      </c>
+      <c r="F2" t="n">
         <v>425245.7963641359</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>425245.7963641357</v>
       </c>
-      <c r="G2" t="n">
-        <v>425245.7963641358</v>
-      </c>
       <c r="H2" t="n">
-        <v>425245.7963641356</v>
+        <v>425245.7963641359</v>
       </c>
       <c r="I2" t="n">
-        <v>548393.9084808653</v>
+        <v>548393.9084808654</v>
       </c>
       <c r="J2" t="n">
+        <v>548393.9084808659</v>
+      </c>
+      <c r="K2" t="n">
         <v>548393.9084808655</v>
       </c>
-      <c r="K2" t="n">
-        <v>548393.9084808654</v>
-      </c>
       <c r="L2" t="n">
-        <v>548393.9084808654</v>
+        <v>548393.9084808658</v>
       </c>
       <c r="M2" t="n">
-        <v>425245.7963641358</v>
+        <v>425245.7963641357</v>
       </c>
       <c r="N2" t="n">
         <v>425245.7963641357</v>
       </c>
       <c r="O2" t="n">
-        <v>425245.7963641357</v>
+        <v>425245.7963641358</v>
       </c>
       <c r="P2" t="n">
         <v>425245.7963641359</v>
@@ -26429,13 +26429,13 @@
         <v>25048.99765378028</v>
       </c>
       <c r="F4" t="n">
+        <v>25048.99765378028</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25048.99765378028</v>
+      </c>
+      <c r="H4" t="n">
         <v>25048.99765378029</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25048.99765378029</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25048.99765378028</v>
       </c>
       <c r="I4" t="n">
         <v>74680.16211261952</v>
@@ -26453,13 +26453,13 @@
         <v>25048.99765378028</v>
       </c>
       <c r="N4" t="n">
-        <v>25048.99765378029</v>
+        <v>25048.99765378028</v>
       </c>
       <c r="O4" t="n">
         <v>25048.99765378028</v>
       </c>
       <c r="P4" t="n">
-        <v>25048.99765378029</v>
+        <v>25048.99765378028</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132516.3858470128</v>
+        <v>132516.3858470132</v>
       </c>
       <c r="C6" t="n">
-        <v>137644.6851512976</v>
+        <v>137644.6851512973</v>
       </c>
       <c r="D6" t="n">
         <v>135499.8707435838</v>
       </c>
       <c r="E6" t="n">
-        <v>-538022.8714369494</v>
+        <v>-533218.046498136</v>
       </c>
       <c r="F6" t="n">
-        <v>337001.98048689</v>
+        <v>341806.8054257037</v>
       </c>
       <c r="G6" t="n">
-        <v>337001.9804868901</v>
+        <v>341806.8054257035</v>
       </c>
       <c r="H6" t="n">
-        <v>337001.9804868899</v>
+        <v>341806.8054257036</v>
       </c>
       <c r="I6" t="n">
-        <v>228848.754031677</v>
+        <v>229695.2467953099</v>
       </c>
       <c r="J6" t="n">
-        <v>376287.4731523434</v>
+        <v>377133.9659159766</v>
       </c>
       <c r="K6" t="n">
-        <v>380291.3426067533</v>
+        <v>381137.8353703863</v>
       </c>
       <c r="L6" t="n">
-        <v>377680.062628456</v>
+        <v>378526.5553920892</v>
       </c>
       <c r="M6" t="n">
-        <v>324975.3054119769</v>
+        <v>329780.1303507903</v>
       </c>
       <c r="N6" t="n">
-        <v>337001.98048689</v>
+        <v>341806.8054257035</v>
       </c>
       <c r="O6" t="n">
-        <v>337001.9804868901</v>
+        <v>341806.8054257036</v>
       </c>
       <c r="P6" t="n">
-        <v>337001.9804868902</v>
+        <v>341806.8054257036</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>143.027717791841</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>236.0775609851042</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.2304461347323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>76.66457297434199</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S3" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>192.9506359002313</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>157.2337688902343</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>163.8147401738385</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.9728767946807</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.9764391112427</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0747697137129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2557545470806</v>
+        <v>395.9321281471422</v>
       </c>
       <c r="G8" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.8484382006936</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27903,7 +27903,7 @@
         <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27940,10 +27940,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>135.825319297428</v>
       </c>
       <c r="F9" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27982,13 +27982,13 @@
         <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,22 +28022,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>2.424580076758538</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>205.8647436399128</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34707,7 +34707,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>15.30273751513505</v>
@@ -34716,7 +34716,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>15.30273751513505</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
@@ -35108,7 +35108,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>25.62029119463083</v>
@@ -35184,13 +35184,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="O9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L9" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>25.62029119463083</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>173.9309677683287</v>
+        <v>47.83993242791988</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5326472835479</v>
+        <v>425.1755687631345</v>
       </c>
       <c r="L12" t="n">
         <v>262.8853195366621</v>
@@ -35500,16 +35500,16 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N12" t="n">
-        <v>643.3828301053389</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O12" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P12" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q12" t="n">
-        <v>306.1019980232943</v>
+        <v>300.9519171514397</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>281.3340690851685</v>
+        <v>272.5108796735665</v>
       </c>
       <c r="K14" t="n">
         <v>219.4658773885374</v>
@@ -35667,10 +35667,10 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.6275085375152</v>
+        <v>363.1671178220996</v>
       </c>
       <c r="R14" t="n">
-        <v>67.19399950791902</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K15" t="n">
-        <v>425.1755687631345</v>
+        <v>196.9200506045637</v>
       </c>
       <c r="L15" t="n">
-        <v>633.7256648401212</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M15" t="n">
-        <v>352.7857553530805</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="N15" t="n">
-        <v>349.5182561980783</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="O15" t="n">
         <v>297.2966829128758</v>
@@ -35749,7 +35749,7 @@
         <v>96.02471028744523</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>112.2374539130947</v>
+        <v>281.3340690851685</v>
       </c>
       <c r="K17" t="n">
         <v>219.4658773885374</v>
@@ -35901,13 +35901,13 @@
         <v>352.1188634609554</v>
       </c>
       <c r="P17" t="n">
-        <v>360.2328134764642</v>
+        <v>265.6758075889747</v>
       </c>
       <c r="Q17" t="n">
-        <v>363.1671178220996</v>
+        <v>354.3439284104977</v>
       </c>
       <c r="R17" t="n">
-        <v>67.19399950791902</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L18" t="n">
-        <v>435.4727571618257</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M18" t="n">
         <v>326.3271604930164</v>
@@ -35980,7 +35980,7 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P18" t="n">
-        <v>219.0784484354497</v>
+        <v>391.6658860606129</v>
       </c>
       <c r="Q18" t="n">
         <v>306.1019980232943</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>112.2374539130947</v>
+        <v>272.5108796735665</v>
       </c>
       <c r="K20" t="n">
         <v>219.4658773885374</v>
@@ -36129,7 +36129,7 @@
         <v>309.5413343280671</v>
       </c>
       <c r="M20" t="n">
-        <v>643.3828301053389</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N20" t="n">
         <v>387.1648872398717</v>
@@ -36141,10 +36141,10 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q20" t="n">
-        <v>190.7550010257545</v>
+        <v>363.1671178220996</v>
       </c>
       <c r="R20" t="n">
-        <v>67.19399950791902</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P21" t="n">
-        <v>537.5412170753868</v>
+        <v>391.6658860606134</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.8608818110314</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L24" t="n">
-        <v>341.7214910602483</v>
+        <v>633.7256648401212</v>
       </c>
       <c r="M24" t="n">
         <v>326.3271604930164</v>
@@ -36454,13 +36454,13 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P24" t="n">
-        <v>537.5412170753868</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.02471028744523</v>
+        <v>107.8490903449992</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K26" t="n">
-        <v>543.6112899597022</v>
+        <v>392.8042277025146</v>
       </c>
       <c r="L26" t="n">
-        <v>576.39548662133</v>
+        <v>727.2025488785175</v>
       </c>
       <c r="M26" t="n">
         <v>825.9272409143374</v>
@@ -36691,13 +36691,13 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P27" t="n">
-        <v>406.300100863124</v>
+        <v>391.6658860606132</v>
       </c>
       <c r="Q27" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>732.9190447237007</v>
       </c>
       <c r="P29" t="n">
-        <v>502.3838733762517</v>
+        <v>587.4745157604574</v>
       </c>
       <c r="Q29" t="n">
-        <v>363.1671178220996</v>
+        <v>212.3600555649116</v>
       </c>
       <c r="R29" t="n">
-        <v>1.477579634936575</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>47.83993242791988</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K30" t="n">
-        <v>160.710331750556</v>
+        <v>425.1755687631345</v>
       </c>
       <c r="L30" t="n">
-        <v>262.8853195366621</v>
+        <v>435.4727571618257</v>
       </c>
       <c r="M30" t="n">
-        <v>792.0322242430163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N30" t="n">
         <v>349.5182561980783</v>
       </c>
       <c r="O30" t="n">
-        <v>619.4468316793869</v>
+        <v>297.2966829128758</v>
       </c>
       <c r="P30" t="n">
         <v>219.0784484354497</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.02471028744523</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K32" t="n">
-        <v>543.6112899597022</v>
+        <v>392.8042277025146</v>
       </c>
       <c r="L32" t="n">
         <v>727.2025488785175</v>
@@ -37080,7 +37080,7 @@
         <v>825.9272409143374</v>
       </c>
       <c r="N32" t="n">
-        <v>673.7047493946679</v>
+        <v>824.5118116518559</v>
       </c>
       <c r="O32" t="n">
         <v>732.9190447237007</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.83993242791988</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K33" t="n">
         <v>425.1755687631345</v>
@@ -37165,13 +37165,13 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P33" t="n">
-        <v>537.5412170753868</v>
+        <v>391.6658860606132</v>
       </c>
       <c r="Q33" t="n">
-        <v>300.9519171514402</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>272.5108796735665</v>
+        <v>281.3340690851685</v>
       </c>
       <c r="K35" t="n">
         <v>219.4658773885374</v>
@@ -37326,7 +37326,7 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q35" t="n">
-        <v>363.1671178220996</v>
+        <v>354.3439284104977</v>
       </c>
       <c r="R35" t="n">
         <v>1.477579634936575</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>47.83993242791988</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K36" t="n">
         <v>425.1755687631345</v>
       </c>
       <c r="L36" t="n">
-        <v>262.8853195366621</v>
+        <v>435.4727571618253</v>
       </c>
       <c r="M36" t="n">
         <v>326.3271604930164</v>
@@ -37402,13 +37402,13 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P36" t="n">
-        <v>537.5412170753868</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q36" t="n">
-        <v>300.9519171514397</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>272.5108796735665</v>
+        <v>112.2374539130947</v>
       </c>
       <c r="K38" t="n">
         <v>219.4658773885374</v>
@@ -37551,7 +37551,7 @@
         <v>309.5413343280671</v>
       </c>
       <c r="M38" t="n">
-        <v>376.4137074215049</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="N38" t="n">
         <v>387.1648872398717</v>
@@ -37563,10 +37563,10 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q38" t="n">
-        <v>363.1671178220996</v>
+        <v>190.7550010257545</v>
       </c>
       <c r="R38" t="n">
-        <v>1.477579634936575</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L39" t="n">
-        <v>327.0872762577377</v>
+        <v>435.4727571618257</v>
       </c>
       <c r="M39" t="n">
         <v>326.3271604930164</v>
@@ -37639,10 +37639,10 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P39" t="n">
-        <v>537.5412170753868</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.02471028744523</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R39" t="n">
         <v>14.63421480251067</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>272.5108796735665</v>
+        <v>281.3340690851685</v>
       </c>
       <c r="K41" t="n">
-        <v>219.4658773885374</v>
+        <v>422.9576786368398</v>
       </c>
       <c r="L41" t="n">
         <v>309.5413343280671</v>
@@ -37800,7 +37800,7 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q41" t="n">
-        <v>363.1671178220996</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R41" t="n">
         <v>1.477579634936575</v>
@@ -37864,7 +37864,7 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L42" t="n">
-        <v>262.8853195366621</v>
+        <v>435.4727571618253</v>
       </c>
       <c r="M42" t="n">
         <v>326.3271604930164</v>
@@ -37876,7 +37876,7 @@
         <v>297.2966829128758</v>
       </c>
       <c r="P42" t="n">
-        <v>391.6658860606129</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q42" t="n">
         <v>306.1019980232943</v>
@@ -38098,7 +38098,7 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K45" t="n">
-        <v>425.1755687631345</v>
+        <v>160.710331750556</v>
       </c>
       <c r="L45" t="n">
         <v>262.8853195366621</v>
@@ -38110,10 +38110,10 @@
         <v>349.5182561980783</v>
       </c>
       <c r="O45" t="n">
-        <v>297.2966829128758</v>
+        <v>415.8865889106805</v>
       </c>
       <c r="P45" t="n">
-        <v>391.6658860606134</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q45" t="n">
         <v>306.1019980232943</v>
